--- a/Test/resources/ValidDRSTESTDATA.xlsx
+++ b/Test/resources/ValidDRSTESTDATA.xlsx
@@ -4789,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD5428A-76D9-401C-A3EA-36F3D393C743}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F2" s="22">
         <f ca="1">(TODAY() - G2) + H2</f>
-        <v>29730</v>
+        <v>29731</v>
       </c>
       <c r="G2" s="22">
         <v>42818</v>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="F3" s="22">
         <f t="shared" ref="F3:F11" ca="1" si="0">(TODAY() - G3) + H3</f>
-        <v>29567</v>
+        <v>29568</v>
       </c>
       <c r="G3" s="22">
         <v>42818</v>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>32417</v>
+        <v>32418</v>
       </c>
       <c r="G4" s="22">
         <v>42818</v>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="F5" s="22">
         <f ca="1">(TODAY() - G5) + H5</f>
-        <v>35010</v>
+        <v>35011</v>
       </c>
       <c r="G5" s="22">
         <v>42818</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="F6" s="22">
         <f ca="1">(TODAY() - G6) + H6</f>
-        <v>31484</v>
+        <v>31485</v>
       </c>
       <c r="G6" s="22">
         <v>42818</v>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="F7" s="22">
         <f ca="1">(TODAY() - G7) + H7</f>
-        <v>32315</v>
+        <v>32316</v>
       </c>
       <c r="G7" s="22">
         <v>42818</v>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="F8" s="22">
         <f ca="1">(TODAY() - G8) + H8</f>
-        <v>31099</v>
+        <v>31100</v>
       </c>
       <c r="G8" s="22">
         <v>42818</v>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="F10" s="22">
         <f ca="1">(TODAY() - G10) + H10</f>
-        <v>34839</v>
+        <v>34840</v>
       </c>
       <c r="G10" s="22">
         <v>42818</v>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="F11" s="22">
         <f t="shared" ca="1" si="0"/>
-        <v>27338</v>
+        <v>27339</v>
       </c>
       <c r="G11" s="22">
         <v>42818</v>
